--- a/modules/admin/views/krsmatkul/_uts.xlsx
+++ b/modules/admin/views/krsmatkul/_uts.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-akademik\views\krsmatkul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-akademik\modules\admin\views\krsmatkul\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="9780" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="ALGO SI.KA (2)" sheetId="30" r:id="rId1"/>
+    <sheet name="UTS" sheetId="30" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ALGO SI.KA (2)'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">UTS!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -81,30 +81,9 @@
     <t>(………………………………………………)</t>
   </si>
   <si>
-    <t>UJIAN TENGAH SEMESTER (UTS) SEMESTER GANJIL T.A 2018/2019</t>
-  </si>
-  <si>
     <t>JL. POMPA AIR NO. 28 KM 2.5 TANJUNGPINANG - KEPULAUAN RIAU</t>
   </si>
   <si>
-    <t>: SENIN</t>
-  </si>
-  <si>
-    <t>: 19.35-20.55</t>
-  </si>
-  <si>
-    <t>: IF1204</t>
-  </si>
-  <si>
-    <t>: NANY RARAS S.S.SI,M.KOM</t>
-  </si>
-  <si>
-    <t>: A.203</t>
-  </si>
-  <si>
-    <t>: FISIKA 2 B</t>
-  </si>
-  <si>
     <t>[data.no;noerr;block=tbs:row]</t>
   </si>
   <si>
@@ -112,6 +91,27 @@
   </si>
   <si>
     <t>[data.nama_mhs;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.hari;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.kmatkul;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.nmatkul;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.jam_masuk;noerr]-[dataHeader.jam_keluar;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.namaruang;noerr]</t>
+  </si>
+  <si>
+    <t>: [dataHeader.nama_dosen;noerr]</t>
+  </si>
+  <si>
+    <t>UJIAN TENGAH SEMESTER (UTS) SEMESTER ##############</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -292,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,7 +687,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,44 +701,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -752,24 +749,24 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -777,13 +774,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>22</v>
+      <c r="E8" s="16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -792,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
+      <c r="E9" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -806,14 +803,14 @@
       <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
+      <c r="C10" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,48 +818,48 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="18" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">

--- a/modules/admin/views/krsmatkul/_uts.xlsx
+++ b/modules/admin/views/krsmatkul/_uts.xlsx
@@ -111,7 +111,7 @@
     <t>: [dataHeader.nama_dosen;noerr]</t>
   </si>
   <si>
-    <t>UJIAN TENGAH SEMESTER (UTS) SEMESTER ##############</t>
+    <t>UJIAN TENGAH SEMESTER (UTS) SEMESTER [dataHeader.semester;noerr] T.A [dataHeader.tahun;noerr]</t>
   </si>
 </sst>
 </file>
@@ -305,6 +305,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,21 +327,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,7 +687,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,44 +701,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -749,24 +749,24 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -818,28 +818,28 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="17" t="s">
         <v>17</v>
       </c>
@@ -881,17 +881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.23622047244094491" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="121" scale="87" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
